--- a/be/final CRISTMAS USERS ID AND PASSWORD.xlsx
+++ b/be/final CRISTMAS USERS ID AND PASSWORD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="312">
   <si>
     <t xml:space="preserve">SL NO</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">PASSWORD</t>
   </si>
   <si>
-    <t xml:space="preserve">Christmas friend</t>
+    <t xml:space="preserve">Christmas_friend</t>
   </si>
   <si>
     <t xml:space="preserve">DESIGNATION</t>
@@ -950,6 +950,12 @@
   </si>
   <si>
     <t xml:space="preserve">Haris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irshad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir@9090</t>
   </si>
 </sst>
 </file>
@@ -1104,20 +1110,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="17.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3118,7 +3124,27 @@
         <v>309</v>
       </c>
     </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D64" r:id="rId1" display="ir@9090"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
